--- a/MetallFactory/xlsx_data/parties.xlsx
+++ b/MetallFactory/xlsx_data/parties.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o.semenkina\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -163,7 +158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -340,26 +335,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -367,7 +362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -375,7 +370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -383,7 +378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -391,7 +386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -399,7 +394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -407,7 +402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -415,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -423,7 +418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -431,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -439,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -447,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -455,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -463,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -471,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -479,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -487,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -495,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -503,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -511,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -519,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -527,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -535,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -543,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -551,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -559,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -567,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -575,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -583,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -591,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -599,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -607,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -615,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -623,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -631,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -639,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -647,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -655,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -663,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -671,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -679,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -687,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -695,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -703,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -711,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -719,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -727,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -735,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -743,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -751,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -759,12 +754,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/MetallFactory/xlsx_data/parties.xlsx
+++ b/MetallFactory/xlsx_data/parties.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o.semenkina\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -158,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -335,26 +340,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -362,7 +367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -370,7 +375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -378,7 +383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -386,7 +391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -394,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -402,7 +407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -410,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -418,7 +423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -426,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -434,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -442,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -450,7 +455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -458,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -466,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -474,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -482,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -490,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -498,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -506,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -514,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -522,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -530,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -538,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -546,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -554,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -562,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -570,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -578,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -586,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -594,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -602,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -610,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -618,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -626,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -634,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -642,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -650,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -658,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -666,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -674,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -682,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -690,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -698,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -706,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -714,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -722,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -730,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -738,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -746,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -754,28 +759,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
